--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\development\city_code\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\development\city_code\search_citycode\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84C98F6-7827-4323-BC78-D943BB117AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9627A84-F023-4C61-9385-F68CB22D079C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A09C5EFD-9251-4B26-93CB-55C05CA08056}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{A09C5EFD-9251-4B26-93CB-55C05CA08056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>医療機関コード</t>
     <rPh sb="0" eb="4">
@@ -101,6 +101,19 @@
   </si>
   <si>
     <t>福岡県福岡市東区原田三 丁目４番１０号</t>
+  </si>
+  <si>
+    <t>4710710304</t>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9070000</t>
+  </si>
+  <si>
+    <t>石垣市真栄里４３８</t>
   </si>
 </sst>
 </file>
@@ -485,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04585DE-6671-4087-9990-0411E7221C62}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -522,7 +535,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -536,7 +549,7 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -550,12 +563,27 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\development\city_code\search_citycode\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9627A84-F023-4C61-9385-F68CB22D079C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB523A31-ED66-418E-86ED-1BE07DC92C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{A09C5EFD-9251-4B26-93CB-55C05CA08056}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A09C5EFD-9251-4B26-93CB-55C05CA08056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>医療機関コード</t>
     <rPh sb="0" eb="4">
@@ -114,6 +114,29 @@
   </si>
   <si>
     <t>石垣市真栄里４３８</t>
+  </si>
+  <si>
+    <t>4710611114</t>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮古島市上野字新里１４ ０５－２０１ホテルシギ ラミラージュ２階</t>
+  </si>
+  <si>
+    <t>4712312174</t>
+  </si>
+  <si>
+    <t>〒901－1304</t>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島尻郡与那原町東浜９３ －３</t>
   </si>
 </sst>
 </file>
@@ -498,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04585DE-6671-4087-9990-0411E7221C62}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -579,6 +602,32 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
